--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H2">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.02757633333333</v>
+        <v>19.84999933333333</v>
       </c>
       <c r="N2">
-        <v>60.082729</v>
+        <v>59.549998</v>
       </c>
       <c r="O2">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="P2">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="Q2">
-        <v>2071.402918939593</v>
+        <v>2342.988689843534</v>
       </c>
       <c r="R2">
-        <v>18642.62627045634</v>
+        <v>21086.89820859181</v>
       </c>
       <c r="S2">
-        <v>0.04976064219484416</v>
+        <v>0.04883328888859809</v>
       </c>
       <c r="T2">
-        <v>0.04976064219484415</v>
+        <v>0.04883328888859809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H3">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>99.89723900000001</v>
       </c>
       <c r="O3">
-        <v>0.3328670078646687</v>
+        <v>0.3072686534975208</v>
       </c>
       <c r="P3">
-        <v>0.3328670078646686</v>
+        <v>0.3072686534975207</v>
       </c>
       <c r="Q3">
-        <v>3444.041838688888</v>
+        <v>3930.446834332327</v>
       </c>
       <c r="R3">
-        <v>30996.37654819999</v>
+        <v>35374.02150899095</v>
       </c>
       <c r="S3">
-        <v>0.08273510289673815</v>
+        <v>0.08191957842316518</v>
       </c>
       <c r="T3">
-        <v>0.08273510289673811</v>
+        <v>0.08191957842316516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H4">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.77731666666667</v>
+        <v>24.07451633333333</v>
       </c>
       <c r="N4">
-        <v>38.33195</v>
+        <v>72.22354899999999</v>
       </c>
       <c r="O4">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="P4">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="Q4">
-        <v>1321.526409338806</v>
+        <v>2841.628280950744</v>
       </c>
       <c r="R4">
-        <v>11893.73768404925</v>
+        <v>25574.6545285567</v>
       </c>
       <c r="S4">
-        <v>0.03174660139989075</v>
+        <v>0.05922608818352638</v>
       </c>
       <c r="T4">
-        <v>0.03174660139989074</v>
+        <v>0.05922608818352638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H5">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.93321599999999</v>
+        <v>31.14762733333333</v>
       </c>
       <c r="N5">
-        <v>101.799648</v>
+        <v>93.442882</v>
       </c>
       <c r="O5">
-        <v>0.3392060138062123</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="P5">
-        <v>0.3392060138062122</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="Q5">
-        <v>3509.62899861328</v>
+        <v>3676.50080647163</v>
       </c>
       <c r="R5">
-        <v>31586.66098751952</v>
+        <v>33088.50725824467</v>
       </c>
       <c r="S5">
-        <v>0.08431068202126908</v>
+        <v>0.07662675742305118</v>
       </c>
       <c r="T5">
-        <v>0.08431068202126905</v>
+        <v>0.07662675742305118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J6">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.02757633333333</v>
+        <v>19.84999933333333</v>
       </c>
       <c r="N6">
-        <v>60.082729</v>
+        <v>59.549998</v>
       </c>
       <c r="O6">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="P6">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="Q6">
-        <v>4328.570867786977</v>
+        <v>4290.191055062974</v>
       </c>
       <c r="R6">
-        <v>38957.13781008279</v>
+        <v>38611.71949556677</v>
       </c>
       <c r="S6">
-        <v>0.1039838576056652</v>
+        <v>0.08941747780829469</v>
       </c>
       <c r="T6">
-        <v>0.1039838576056652</v>
+        <v>0.0894174778082947</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J7">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>99.89723900000001</v>
       </c>
       <c r="O7">
-        <v>0.3328670078646687</v>
+        <v>0.3072686534975208</v>
       </c>
       <c r="P7">
-        <v>0.3328670078646686</v>
+        <v>0.3072686534975207</v>
       </c>
       <c r="Q7">
         <v>7196.948036560608</v>
@@ -883,10 +883,10 @@
         <v>64772.53232904547</v>
       </c>
       <c r="S7">
-        <v>0.1728899543723306</v>
+        <v>0.1500009983441546</v>
       </c>
       <c r="T7">
-        <v>0.1728899543723305</v>
+        <v>0.1500009983441546</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J8">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.77731666666667</v>
+        <v>24.07451633333333</v>
       </c>
       <c r="N8">
-        <v>38.33195</v>
+        <v>72.22354899999999</v>
       </c>
       <c r="O8">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="P8">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="Q8">
-        <v>2761.56833814035</v>
+        <v>5203.238191287636</v>
       </c>
       <c r="R8">
-        <v>24854.11504326315</v>
+        <v>46829.14372158873</v>
       </c>
       <c r="S8">
-        <v>0.06634026278246245</v>
+        <v>0.1084474862609363</v>
       </c>
       <c r="T8">
-        <v>0.06634026278246243</v>
+        <v>0.1084474862609363</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J9">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.93321599999999</v>
+        <v>31.14762733333333</v>
       </c>
       <c r="N9">
-        <v>101.799648</v>
+        <v>93.442882</v>
       </c>
       <c r="O9">
-        <v>0.3392060138062123</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="P9">
-        <v>0.3392060138062122</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="Q9">
-        <v>7334.004264083423</v>
+        <v>6731.953484124466</v>
       </c>
       <c r="R9">
-        <v>66006.0383767508</v>
+        <v>60587.58135712019</v>
       </c>
       <c r="S9">
-        <v>0.1761824117865691</v>
+        <v>0.1403094392644329</v>
       </c>
       <c r="T9">
-        <v>0.176182411786569</v>
+        <v>0.1403094392644329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H10">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I10">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J10">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.02757633333333</v>
+        <v>19.84999933333333</v>
       </c>
       <c r="N10">
-        <v>60.082729</v>
+        <v>59.549998</v>
       </c>
       <c r="O10">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="P10">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="Q10">
-        <v>499.7520777057806</v>
+        <v>910.6475416156986</v>
       </c>
       <c r="R10">
-        <v>4497.768699352026</v>
+        <v>8195.827874541288</v>
       </c>
       <c r="S10">
-        <v>0.0120053824861741</v>
+        <v>0.01897999536582517</v>
       </c>
       <c r="T10">
-        <v>0.0120053824861741</v>
+        <v>0.01897999536582518</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H11">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I11">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J11">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>99.89723900000001</v>
       </c>
       <c r="O11">
-        <v>0.3328670078646687</v>
+        <v>0.3072686534975208</v>
       </c>
       <c r="P11">
-        <v>0.3328670078646686</v>
+        <v>0.3072686534975207</v>
       </c>
       <c r="Q11">
-        <v>830.9185281401074</v>
+        <v>1527.64362997201</v>
       </c>
       <c r="R11">
-        <v>7478.266753260966</v>
+        <v>13748.79266974809</v>
       </c>
       <c r="S11">
-        <v>0.01996088698813512</v>
+        <v>0.03183961707737975</v>
       </c>
       <c r="T11">
-        <v>0.01996088698813511</v>
+        <v>0.03183961707737975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H12">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I12">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J12">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.77731666666667</v>
+        <v>24.07451633333333</v>
       </c>
       <c r="N12">
-        <v>38.33195</v>
+        <v>72.22354899999999</v>
       </c>
       <c r="O12">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="P12">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="Q12">
-        <v>318.8349126920333</v>
+        <v>1104.453392989383</v>
       </c>
       <c r="R12">
-        <v>2869.514214228299</v>
+        <v>9940.080536904443</v>
       </c>
       <c r="S12">
-        <v>0.007659267960197037</v>
+        <v>0.02301935636208497</v>
       </c>
       <c r="T12">
-        <v>0.007659267960197035</v>
+        <v>0.02301935636208497</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H13">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I13">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J13">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.93321599999999</v>
+        <v>31.14762733333333</v>
       </c>
       <c r="N13">
-        <v>101.799648</v>
+        <v>93.442882</v>
       </c>
       <c r="O13">
-        <v>0.3392060138062123</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="P13">
-        <v>0.3392060138062122</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="Q13">
-        <v>846.7422576247677</v>
+        <v>1428.942630271555</v>
       </c>
       <c r="R13">
-        <v>7620.68031862291</v>
+        <v>12860.48367244399</v>
       </c>
       <c r="S13">
-        <v>0.02034101532235475</v>
+        <v>0.02978246056917329</v>
       </c>
       <c r="T13">
-        <v>0.02034101532235475</v>
+        <v>0.0297824605691733</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H14">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.02757633333333</v>
+        <v>19.84999933333333</v>
       </c>
       <c r="N14">
-        <v>60.082729</v>
+        <v>59.549998</v>
       </c>
       <c r="O14">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="P14">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="Q14">
-        <v>1434.121167463308</v>
+        <v>1244.389080623581</v>
       </c>
       <c r="R14">
-        <v>12907.09050716978</v>
+        <v>11199.50172561223</v>
       </c>
       <c r="S14">
-        <v>0.03445142884838958</v>
+        <v>0.02593593888324165</v>
       </c>
       <c r="T14">
-        <v>0.03445142884838957</v>
+        <v>0.02593593888324165</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H15">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>99.89723900000001</v>
       </c>
       <c r="O15">
-        <v>0.3328670078646687</v>
+        <v>0.3072686534975208</v>
       </c>
       <c r="P15">
-        <v>0.3328670078646686</v>
+        <v>0.3072686534975207</v>
       </c>
       <c r="Q15">
-        <v>2384.458019891892</v>
+        <v>2087.506928145391</v>
       </c>
       <c r="R15">
-        <v>21460.12217902703</v>
+        <v>18787.56235330852</v>
       </c>
       <c r="S15">
-        <v>0.05728106360746479</v>
+        <v>0.04350845965282122</v>
       </c>
       <c r="T15">
-        <v>0.05728106360746477</v>
+        <v>0.04350845965282122</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H16">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.77731666666667</v>
+        <v>24.07451633333333</v>
       </c>
       <c r="N16">
-        <v>38.33195</v>
+        <v>72.22354899999999</v>
       </c>
       <c r="O16">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="P16">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="Q16">
-        <v>914.9494671779166</v>
+        <v>1509.222481241429</v>
       </c>
       <c r="R16">
-        <v>8234.545204601251</v>
+        <v>13583.00233117286</v>
       </c>
       <c r="S16">
-        <v>0.02197953505149586</v>
+        <v>0.03145567784561148</v>
       </c>
       <c r="T16">
-        <v>0.02197953505149585</v>
+        <v>0.03145567784561149</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H17">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.93321599999999</v>
+        <v>31.14762733333333</v>
       </c>
       <c r="N17">
-        <v>101.799648</v>
+        <v>93.442882</v>
       </c>
       <c r="O17">
-        <v>0.3392060138062123</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="P17">
-        <v>0.3392060138062122</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="Q17">
-        <v>2429.8668264072</v>
+        <v>1952.633180991841</v>
       </c>
       <c r="R17">
-        <v>21868.8014376648</v>
+        <v>17573.69862892657</v>
       </c>
       <c r="S17">
-        <v>0.05837190467601935</v>
+        <v>0.04069737964770311</v>
       </c>
       <c r="T17">
-        <v>0.05837190467601935</v>
+        <v>0.04069737964770312</v>
       </c>
     </row>
   </sheetData>
